--- a/GitCommands.xlsx
+++ b/GitCommands.xlsx
@@ -33,9 +33,6 @@
     <t>Create repository in GutHub(Public/Private)</t>
   </si>
   <si>
-    <t>git --version</t>
-  </si>
-  <si>
     <t>to know GIT version installed</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>Tell Git who you are</t>
+  </si>
+  <si>
+    <t>git --version   1223</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -474,10 +474,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -485,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -494,19 +494,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
